--- a/src/main/resources/Book1.xlsx
+++ b/src/main/resources/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z004krnn\Desktop\AMN\FrameWorke\DashBord_Selenium\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CA934C-8060-40CE-B365-603FBA3B4D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED127148-94A1-4F1A-84BA-DFF1FA1FD181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1632" yWindow="1632" windowWidth="17280" windowHeight="8988" xr2:uid="{4398F9EA-1A87-4012-9B21-1E57E9799A33}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4398F9EA-1A87-4012-9B21-1E57E9799A33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -36,16 +36,7 @@
     <t>standard_user</t>
   </si>
   <si>
-    <t>locked_out_user</t>
-  </si>
-  <si>
-    <t>problem_user</t>
-  </si>
-  <si>
     <t>performance_glitch_user</t>
-  </si>
-  <si>
-    <t>error_user</t>
   </si>
   <si>
     <t>visual_user</t>
@@ -403,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9076A963-8DD1-4673-9510-12D9C4F0B2FE}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,7 +419,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -436,7 +427,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -444,31 +435,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
